--- a/Turma Home Jan2018/1° Sabado/Aula 3/Aula Varios Ses 2.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 3/Aula Varios Ses 2.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD9A555-ABF3-4FBB-B62A-2CF7DA37DD76}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +17,15 @@
     <definedName name="TrimestreDeEnvio">'Contar e Somar'!$E$9:$E$294</definedName>
     <definedName name="VendasDoProduto">'Contar e Somar'!$D$9:$D$294</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -498,142 +507,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107673</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171129</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458DC52F-EB0D-481E-A8CC-6D3450B5D754}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9223098" y="0"/>
-          <a:ext cx="1569555" cy="361629"/>
-          <a:chOff x="9009915" y="332447"/>
-          <a:chExt cx="3182085" cy="978406"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8A1DE9-97AB-40AD-B7B1-F2A94AB3E819}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="22842"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9009915" y="332447"/>
-            <a:ext cx="3177322" cy="753404"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33350992-9D83-4221-BACA-C4500CC4C782}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId3">
-                    <a14:imgEffect>
-                      <a14:brightnessContrast bright="20000" contrast="-40000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect t="76760"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9014678" y="1083922"/>
-            <a:ext cx="3177322" cy="226931"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -1041,7 +914,7 @@
   <dimension ref="B1:I295"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H9" sqref="H9:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,14 +1017,8 @@
       <c r="G9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="7">
-        <f>COUNTIF(TrimestreDeEnvio,"trim 1")</f>
-        <v>99</v>
-      </c>
-      <c r="I9" s="10">
-        <f>SUMIF(TrimestreDeEnvio,"trim 1",VendasDoProduto)</f>
-        <v>228031.92000000004</v>
-      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
@@ -1169,14 +1036,8 @@
       <c r="G10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="7">
-        <f>COUNTIF(TrimestreDeEnvio,"trim 2")</f>
-        <v>69</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUMIF(TrimestreDeEnvio,"trim 2",VendasDoProduto)</f>
-        <v>144799.01</v>
-      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
@@ -1194,14 +1055,8 @@
       <c r="G11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="7">
-        <f>COUNTIF(TrimestreDeEnvio,"trim 3")</f>
-        <v>39</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUMIF(TrimestreDeEnvio,"trim 3",VendasDoProduto)</f>
-        <v>103724.22000000002</v>
-      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
@@ -1219,14 +1074,8 @@
       <c r="G12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="7">
-        <f>COUNTIF(TrimestreDeEnvio,"trim 4")</f>
-        <v>79</v>
-      </c>
-      <c r="I12" s="10">
-        <f>SUMIF(TrimestreDeEnvio,"trim 4",VendasDoProduto)</f>
-        <v>132291.60999999999</v>
-      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
@@ -1258,14 +1107,8 @@
       <c r="G14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="7">
-        <f>COUNTIF(TrimestreDeEnvio,"trim 1")+COUNTIF(TrimestreDeEnvio,"trim 2")+COUNTIF(TrimestreDeEnvio,"trim 3")+COUNTIF(TrimestreDeEnvio,"trim 4")</f>
-        <v>286</v>
-      </c>
-      <c r="I14" s="8">
-        <f>SUM(I9:I12)</f>
-        <v>608846.76</v>
-      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
